--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value71.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value71.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9655584340205757</v>
+        <v>4.101398468017578</v>
       </c>
       <c r="B1">
-        <v>1.695560943180534</v>
+        <v>4.530810356140137</v>
       </c>
       <c r="C1">
-        <v>1.896955092763595</v>
+        <v>5.696710586547852</v>
       </c>
       <c r="D1">
-        <v>2.159411376978477</v>
+        <v>8.268106460571289</v>
       </c>
       <c r="E1">
-        <v>2.736960346280981</v>
+        <v>4.407927989959717</v>
       </c>
     </row>
   </sheetData>
